--- a/Archive/LandmarkSequenceCheck_BaseArch_20250722.xlsx
+++ b/Archive/LandmarkSequenceCheck_BaseArch_20250722.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub\PHD_XLS_Validator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA22625-254C-4FC8-A318-17D48F2DD5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408934EA-C8CE-48E4-8C83-7467A82B6AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{B30E8A96-C8BB-4099-9CE9-6C249E4F3EED}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{B30E8A96-C8BB-4099-9CE9-6C249E4F3EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -1362,64 +1362,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.8636537830000002</c:v>
+                  <c:v>0.18717768800000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0539869409999998</c:v>
+                  <c:v>1.8394835359999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.620097103</c:v>
+                  <c:v>2.4437609349999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0685527409999995</c:v>
+                  <c:v>2.9027499680000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2757777850000007</c:v>
+                  <c:v>3.738838533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7840632280000008</c:v>
+                  <c:v>4.4089207339999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2045821429999997</c:v>
+                  <c:v>4.5794457299999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8306503579999998</c:v>
+                  <c:v>5.0635578639999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0797169499999999</c:v>
+                  <c:v>5.0091343190000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1396841999999996</c:v>
+                  <c:v>4.0017496939999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41702152999999997</c:v>
+                  <c:v>2.8000621799999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7294332670000001</c:v>
+                  <c:v>0.85025380900000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.1754398699999999</c:v>
+                  <c:v>-1.0356693640000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.2455440070000003</c:v>
+                  <c:v>-2.1174695319999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.0220417099999999</c:v>
+                  <c:v>-3.0395794920000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.788168046</c:v>
+                  <c:v>-4.0539841169999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.937802016</c:v>
+                  <c:v>-5.3474307630000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.1027992649999998</c:v>
+                  <c:v>-4.4100935210000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1956552660000002</c:v>
+                  <c:v>-3.0685697429999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.28192365200000002</c:v>
+                  <c:v>-2.0263945190000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,64 +1431,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>24.226315110000002</c:v>
+                  <c:v>10.82894993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.476450320000001</c:v>
+                  <c:v>9.4892205660000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.816597999999999</c:v>
+                  <c:v>7.5544400310000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.529342959999999</c:v>
+                  <c:v>5.5991107859999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9295639330000007</c:v>
+                  <c:v>3.3860353989999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9250353569999996</c:v>
+                  <c:v>1.41688905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9264668039999999</c:v>
+                  <c:v>-3.7587567000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.50583176</c:v>
+                  <c:v>-1.997676037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4410843440000001</c:v>
+                  <c:v>-3.6524676340000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.5487294199999999</c:v>
+                  <c:v>-5.1947919899999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.7377649120000003</c:v>
+                  <c:v>-6.8118200299999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.2868112859999998</c:v>
+                  <c:v>-7.9280246449999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4144077079999999</c:v>
+                  <c:v>-7.0112000920000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.895431707</c:v>
+                  <c:v>-4.7114933509999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9088799820000002</c:v>
+                  <c:v>-2.2929993469999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.225141369999999</c:v>
+                  <c:v>0.25944779800000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.04671703</c:v>
+                  <c:v>2.8756223649999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.229701200000001</c:v>
+                  <c:v>5.4215291079999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.86775227</c:v>
+                  <c:v>7.3898938169999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.03768921</c:v>
+                  <c:v>9.7457173439999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,61 +1522,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-0.17432634</c:v>
+                  <c:v>-7.3187433999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1336753999999998E-2</c:v>
+                  <c:v>-0.45159025899999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2975776E-2</c:v>
+                  <c:v>-1.073439032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0237733999999996E-2</c:v>
+                  <c:v>-0.33101379199999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21479092899999999</c:v>
+                  <c:v>-1.53641669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.364148678</c:v>
+                  <c:v>-1.8104858619999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46758920999999998</c:v>
+                  <c:v>-2.0024196409999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57844602700000003</c:v>
+                  <c:v>-1.8044874070000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68744717200000005</c:v>
+                  <c:v>-1.285270234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87385952499999997</c:v>
+                  <c:v>-0.20472905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4025702120000001</c:v>
+                  <c:v>0.41124728500000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.99309048</c:v>
+                  <c:v>0.25065236499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4648830080000002</c:v>
+                  <c:v>-0.42624868900000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4644206519999998</c:v>
+                  <c:v>-0.69136958699999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8820673929999998</c:v>
+                  <c:v>0.29862867599999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5070497440000001</c:v>
+                  <c:v>0.65655361400000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8222775069999999</c:v>
+                  <c:v>0.60922746999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1295485000000003</c:v>
+                  <c:v>1.108209803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4774719379999999</c:v>
+                  <c:v>1.4613604549999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,61 +1588,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>23.434740009999999</c:v>
+                  <c:v>10.18693395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.6024818</c:v>
+                  <c:v>8.5584117309999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.495398290000001</c:v>
+                  <c:v>6.814159343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.791305260000001</c:v>
+                  <c:v>6.8807593159999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.637799529999999</c:v>
+                  <c:v>5.7733790000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.412717150000001</c:v>
+                  <c:v>5.4588927199999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.87169428</c:v>
+                  <c:v>4.4753702090000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.220186050000001</c:v>
+                  <c:v>2.8949788550000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.59632302</c:v>
+                  <c:v>1.0433318739999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8192133899999998</c:v>
+                  <c:v>-1.161757588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.185349414</c:v>
+                  <c:v>-2.0025914889999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5541586839999999</c:v>
+                  <c:v>-1.779032918</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8392510770000001</c:v>
+                  <c:v>-1.4092358410000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92761030300000002</c:v>
+                  <c:v>-1.824588898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.88611566799999997</c:v>
+                  <c:v>-2.7335114479999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.75694962099999996</c:v>
+                  <c:v>-2.840946175</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.8866949649999998</c:v>
+                  <c:v>-3.9862279699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.7295944309999998</c:v>
+                  <c:v>-5.6983565909999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.5940718540000001</c:v>
+                  <c:v>-6.4461439470000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,7 +1731,6 @@
         <c:axId val="392341424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2387,64 +2386,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-6.8486022609999999</c:v>
+                  <c:v>-3.791447878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.7919518229999998</c:v>
+                  <c:v>-3.626884054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.5733610520000001</c:v>
+                  <c:v>-3.4073065539999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7852823969999996</c:v>
+                  <c:v>-3.009617655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9575694189999999</c:v>
+                  <c:v>-2.7966077839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.306363492</c:v>
+                  <c:v>-2.7831053670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9134639279999996</c:v>
+                  <c:v>-2.5425806500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.5616992319999996</c:v>
+                  <c:v>-3.231658962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.7125109389999995</c:v>
+                  <c:v>-4.0420881120000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.3819418</c:v>
+                  <c:v>-4.3025065480000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-11.03655644</c:v>
+                  <c:v>-3.9152920249999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.3246464230000008</c:v>
+                  <c:v>-4.4927720170000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.4815966940000003</c:v>
+                  <c:v>-4.5698659939999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.3934269949999996</c:v>
+                  <c:v>-4.4892756880000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.1944498370000001</c:v>
+                  <c:v>-3.7852382809999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0643321100000001</c:v>
+                  <c:v>-3.1746169950000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8764375339999999</c:v>
+                  <c:v>-3.1709711519999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.6639096410000001</c:v>
+                  <c:v>-3.2568835049999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.9571365299999997</c:v>
+                  <c:v>-3.7210298879999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.6655530929999998</c:v>
+                  <c:v>-3.912085254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,64 +2455,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>24.226315110000002</c:v>
+                  <c:v>10.82894993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.476450320000001</c:v>
+                  <c:v>9.4892205660000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.816597999999999</c:v>
+                  <c:v>7.5544400310000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.529342959999999</c:v>
+                  <c:v>5.5991107859999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9295639330000007</c:v>
+                  <c:v>3.3860353989999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9250353569999996</c:v>
+                  <c:v>1.41688905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9264668039999999</c:v>
+                  <c:v>-3.7587567000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.50583176</c:v>
+                  <c:v>-1.997676037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4410843440000001</c:v>
+                  <c:v>-3.6524676340000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.5487294199999999</c:v>
+                  <c:v>-5.1947919899999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.7377649120000003</c:v>
+                  <c:v>-6.8118200299999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.2868112859999998</c:v>
+                  <c:v>-7.9280246449999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4144077079999999</c:v>
+                  <c:v>-7.0112000920000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.895431707</c:v>
+                  <c:v>-4.7114933509999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9088799820000002</c:v>
+                  <c:v>-2.2929993469999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.225141369999999</c:v>
+                  <c:v>0.25944779800000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.04671703</c:v>
+                  <c:v>2.8756223649999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.229701200000001</c:v>
+                  <c:v>5.4215291079999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.86775227</c:v>
+                  <c:v>7.3898938169999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.03768921</c:v>
+                  <c:v>9.7457173439999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2550,61 +2549,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-3.9701439509999998</c:v>
+                  <c:v>-1.0662534960000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2699474589999999</c:v>
+                  <c:v>1.229366382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8116244100000001</c:v>
+                  <c:v>1.198797052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1140123190000004</c:v>
+                  <c:v>-1.3987769699999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4538327180000001</c:v>
+                  <c:v>-0.76357613199999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3871872070000002</c:v>
+                  <c:v>2.010276164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.40373325</c:v>
+                  <c:v>4.6933724989999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.36771515</c:v>
+                  <c:v>7.0682910789999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.352416309999999</c:v>
+                  <c:v>9.1705122899999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.156885150000001</c:v>
+                  <c:v>10.520468709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.49581263</c:v>
+                  <c:v>8.0708819030000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.406737870000001</c:v>
+                  <c:v>5.1888690649999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1397967990000009</c:v>
+                  <c:v>2.467497888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1429983949999993</c:v>
+                  <c:v>-0.32109958500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2509914020000004</c:v>
+                  <c:v>-0.98170844199999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92328294799999999</c:v>
+                  <c:v>1.8519499589999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.259520864</c:v>
+                  <c:v>3.4560039890000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.387227781</c:v>
+                  <c:v>1.206477891</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.796433736</c:v>
+                  <c:v>-1.567256258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,61 +2615,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>23.434740009999999</c:v>
+                  <c:v>10.18693395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.6024818</c:v>
+                  <c:v>8.5584117309999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.495398290000001</c:v>
+                  <c:v>6.814159343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.791305260000001</c:v>
+                  <c:v>6.8807593159999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.637799529999999</c:v>
+                  <c:v>5.7733790000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.412717150000001</c:v>
+                  <c:v>5.4588927199999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.87169428</c:v>
+                  <c:v>4.4753702090000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.220186050000001</c:v>
+                  <c:v>2.8949788550000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.59632302</c:v>
+                  <c:v>1.0433318739999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8192133899999998</c:v>
+                  <c:v>-1.161757588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.185349414</c:v>
+                  <c:v>-2.0025914889999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5541586839999999</c:v>
+                  <c:v>-1.779032918</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8392510770000001</c:v>
+                  <c:v>-1.4092358410000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92761030300000002</c:v>
+                  <c:v>-1.824588898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.88611566799999997</c:v>
+                  <c:v>-2.7335114479999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.75694962099999996</c:v>
+                  <c:v>-2.840946175</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.8866949649999998</c:v>
+                  <c:v>-3.9862279699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.7295944309999998</c:v>
+                  <c:v>-5.6983565909999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.5940718540000001</c:v>
+                  <c:v>-6.4461439470000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,64 +3413,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.8636537830000002</c:v>
+                  <c:v>0.18717768800000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0539869409999998</c:v>
+                  <c:v>1.8394835359999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.620097103</c:v>
+                  <c:v>2.4437609349999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0685527409999995</c:v>
+                  <c:v>2.9027499680000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2757777850000007</c:v>
+                  <c:v>3.738838533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7840632280000008</c:v>
+                  <c:v>4.4089207339999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2045821429999997</c:v>
+                  <c:v>4.5794457299999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8306503579999998</c:v>
+                  <c:v>5.0635578639999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0797169499999999</c:v>
+                  <c:v>5.0091343190000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1396841999999996</c:v>
+                  <c:v>4.0017496939999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41702152999999997</c:v>
+                  <c:v>2.8000621799999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7294332670000001</c:v>
+                  <c:v>0.85025380900000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.1754398699999999</c:v>
+                  <c:v>-1.0356693640000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.2455440070000003</c:v>
+                  <c:v>-2.1174695319999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.0220417099999999</c:v>
+                  <c:v>-3.0395794920000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.788168046</c:v>
+                  <c:v>-4.0539841169999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.937802016</c:v>
+                  <c:v>-5.3474307630000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.1027992649999998</c:v>
+                  <c:v>-4.4100935210000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1956552660000002</c:v>
+                  <c:v>-3.0685697429999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.28192365200000002</c:v>
+                  <c:v>-2.0263945190000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,64 +3482,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-6.8486022609999999</c:v>
+                  <c:v>-3.791447878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.7919518229999998</c:v>
+                  <c:v>-3.626884054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.5733610520000001</c:v>
+                  <c:v>-3.4073065539999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7852823969999996</c:v>
+                  <c:v>-3.009617655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9575694189999999</c:v>
+                  <c:v>-2.7966077839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.306363492</c:v>
+                  <c:v>-2.7831053670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9134639279999996</c:v>
+                  <c:v>-2.5425806500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.5616992319999996</c:v>
+                  <c:v>-3.231658962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.7125109389999995</c:v>
+                  <c:v>-4.0420881120000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.3819418</c:v>
+                  <c:v>-4.3025065480000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-11.03655644</c:v>
+                  <c:v>-3.9152920249999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.3246464230000008</c:v>
+                  <c:v>-4.4927720170000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.4815966940000003</c:v>
+                  <c:v>-4.5698659939999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.3934269949999996</c:v>
+                  <c:v>-4.4892756880000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.1944498370000001</c:v>
+                  <c:v>-3.7852382809999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0643321100000001</c:v>
+                  <c:v>-3.1746169950000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8764375339999999</c:v>
+                  <c:v>-3.1709711519999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.6639096410000001</c:v>
+                  <c:v>-3.2568835049999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.9571365299999997</c:v>
+                  <c:v>-3.7210298879999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.6655530929999998</c:v>
+                  <c:v>-3.912085254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3577,61 +3576,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-0.17432634</c:v>
+                  <c:v>-7.3187433999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1336753999999998E-2</c:v>
+                  <c:v>-0.45159025899999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2975776E-2</c:v>
+                  <c:v>-1.073439032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0237733999999996E-2</c:v>
+                  <c:v>-0.33101379199999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21479092899999999</c:v>
+                  <c:v>-1.53641669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.364148678</c:v>
+                  <c:v>-1.8104858619999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46758920999999998</c:v>
+                  <c:v>-2.0024196409999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57844602700000003</c:v>
+                  <c:v>-1.8044874070000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68744717200000005</c:v>
+                  <c:v>-1.285270234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87385952499999997</c:v>
+                  <c:v>-0.20472905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4025702120000001</c:v>
+                  <c:v>0.41124728500000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.99309048</c:v>
+                  <c:v>0.25065236499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4648830080000002</c:v>
+                  <c:v>-0.42624868900000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4644206519999998</c:v>
+                  <c:v>-0.69136958699999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8820673929999998</c:v>
+                  <c:v>0.29862867599999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5070497440000001</c:v>
+                  <c:v>0.65655361400000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8222775069999999</c:v>
+                  <c:v>0.60922746999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1295485000000003</c:v>
+                  <c:v>1.108209803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4774719379999999</c:v>
+                  <c:v>1.4613604549999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,61 +3642,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-3.9701439509999998</c:v>
+                  <c:v>-1.0662534960000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2699474589999999</c:v>
+                  <c:v>1.229366382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8116244100000001</c:v>
+                  <c:v>1.198797052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1140123190000004</c:v>
+                  <c:v>-1.3987769699999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4538327180000001</c:v>
+                  <c:v>-0.76357613199999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3871872070000002</c:v>
+                  <c:v>2.010276164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.40373325</c:v>
+                  <c:v>4.6933724989999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.36771515</c:v>
+                  <c:v>7.0682910789999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.352416309999999</c:v>
+                  <c:v>9.1705122899999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.156885150000001</c:v>
+                  <c:v>10.520468709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.49581263</c:v>
+                  <c:v>8.0708819030000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.406737870000001</c:v>
+                  <c:v>5.1888690649999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1397967990000009</c:v>
+                  <c:v>2.467497888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1429983949999993</c:v>
+                  <c:v>-0.32109958500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2509914020000004</c:v>
+                  <c:v>-0.98170844199999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92328294799999999</c:v>
+                  <c:v>1.8519499589999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.259520864</c:v>
+                  <c:v>3.4560039890000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.387227781</c:v>
+                  <c:v>1.206477891</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.796433736</c:v>
+                  <c:v>-1.567256258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4417,61 +4416,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-0.17432634</c:v>
+                  <c:v>-7.3187433999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1336753999999998E-2</c:v>
+                  <c:v>-0.45159025899999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2975776E-2</c:v>
+                  <c:v>-1.073439032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0237733999999996E-2</c:v>
+                  <c:v>-0.33101379199999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21479092899999999</c:v>
+                  <c:v>-1.53641669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.364148678</c:v>
+                  <c:v>-1.8104858619999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46758920999999998</c:v>
+                  <c:v>-2.0024196409999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57844602700000003</c:v>
+                  <c:v>-1.8044874070000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68744717200000005</c:v>
+                  <c:v>-1.285270234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87385952499999997</c:v>
+                  <c:v>-0.20472905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4025702120000001</c:v>
+                  <c:v>0.41124728500000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.99309048</c:v>
+                  <c:v>0.25065236499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4648830080000002</c:v>
+                  <c:v>-0.42624868900000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4644206519999998</c:v>
+                  <c:v>-0.69136958699999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8820673929999998</c:v>
+                  <c:v>0.29862867599999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5070497440000001</c:v>
+                  <c:v>0.65655361400000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8222775069999999</c:v>
+                  <c:v>0.60922746999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1295485000000003</c:v>
+                  <c:v>1.108209803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4774719379999999</c:v>
+                  <c:v>1.4613604549999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4483,61 +4482,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>23.434740009999999</c:v>
+                  <c:v>10.18693395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.6024818</c:v>
+                  <c:v>8.5584117309999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.495398290000001</c:v>
+                  <c:v>6.814159343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.791305260000001</c:v>
+                  <c:v>6.8807593159999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.637799529999999</c:v>
+                  <c:v>5.7733790000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.412717150000001</c:v>
+                  <c:v>5.4588927199999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.87169428</c:v>
+                  <c:v>4.4753702090000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.220186050000001</c:v>
+                  <c:v>2.8949788550000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.59632302</c:v>
+                  <c:v>1.0433318739999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8192133899999998</c:v>
+                  <c:v>-1.161757588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.185349414</c:v>
+                  <c:v>-2.0025914889999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5541586839999999</c:v>
+                  <c:v>-1.779032918</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8392510770000001</c:v>
+                  <c:v>-1.4092358410000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92761030300000002</c:v>
+                  <c:v>-1.824588898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.88611566799999997</c:v>
+                  <c:v>-2.7335114479999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.75694962099999996</c:v>
+                  <c:v>-2.840946175</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.8866949649999998</c:v>
+                  <c:v>-3.9862279699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.7295944309999998</c:v>
+                  <c:v>-5.6983565909999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.5940718540000001</c:v>
+                  <c:v>-6.4461439470000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,64 +4585,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.8636537830000002</c:v>
+                  <c:v>0.18717768800000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0539869409999998</c:v>
+                  <c:v>1.8394835359999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.620097103</c:v>
+                  <c:v>2.4437609349999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0685527409999995</c:v>
+                  <c:v>2.9027499680000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2757777850000007</c:v>
+                  <c:v>3.738838533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7840632280000008</c:v>
+                  <c:v>4.4089207339999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2045821429999997</c:v>
+                  <c:v>4.5794457299999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8306503579999998</c:v>
+                  <c:v>5.0635578639999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0797169499999999</c:v>
+                  <c:v>5.0091343190000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1396841999999996</c:v>
+                  <c:v>4.0017496939999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41702152999999997</c:v>
+                  <c:v>2.8000621799999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7294332670000001</c:v>
+                  <c:v>0.85025380900000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.1754398699999999</c:v>
+                  <c:v>-1.0356693640000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.2455440070000003</c:v>
+                  <c:v>-2.1174695319999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.0220417099999999</c:v>
+                  <c:v>-3.0395794920000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.788168046</c:v>
+                  <c:v>-4.0539841169999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.937802016</c:v>
+                  <c:v>-5.3474307630000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.1027992649999998</c:v>
+                  <c:v>-4.4100935210000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1956552660000002</c:v>
+                  <c:v>-3.0685697429999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.28192365200000002</c:v>
+                  <c:v>-2.0263945190000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4655,64 +4654,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>24.226315110000002</c:v>
+                  <c:v>10.82894993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.476450320000001</c:v>
+                  <c:v>9.4892205660000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.816597999999999</c:v>
+                  <c:v>7.5544400310000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.529342959999999</c:v>
+                  <c:v>5.5991107859999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9295639330000007</c:v>
+                  <c:v>3.3860353989999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9250353569999996</c:v>
+                  <c:v>1.41688905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9264668039999999</c:v>
+                  <c:v>-3.7587567000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.50583176</c:v>
+                  <c:v>-1.997676037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4410843440000001</c:v>
+                  <c:v>-3.6524676340000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.5487294199999999</c:v>
+                  <c:v>-5.1947919899999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.7377649120000003</c:v>
+                  <c:v>-6.8118200299999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.2868112859999998</c:v>
+                  <c:v>-7.9280246449999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4144077079999999</c:v>
+                  <c:v>-7.0112000920000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.895431707</c:v>
+                  <c:v>-4.7114933509999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9088799820000002</c:v>
+                  <c:v>-2.2929993469999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.225141369999999</c:v>
+                  <c:v>0.25944779800000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.04671703</c:v>
+                  <c:v>2.8756223649999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.229701200000001</c:v>
+                  <c:v>5.4215291079999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.86775227</c:v>
+                  <c:v>7.3898938169999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.03768921</c:v>
+                  <c:v>9.7457173439999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4801,7 +4800,6 @@
         <c:axId val="392341424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5433,61 +5431,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-3.9701439509999998</c:v>
+                  <c:v>-1.0662534960000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2699474589999999</c:v>
+                  <c:v>1.229366382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8116244100000001</c:v>
+                  <c:v>1.198797052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1140123190000004</c:v>
+                  <c:v>-1.3987769699999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4538327180000001</c:v>
+                  <c:v>-0.76357613199999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3871872070000002</c:v>
+                  <c:v>2.010276164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.40373325</c:v>
+                  <c:v>4.6933724989999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.36771515</c:v>
+                  <c:v>7.0682910789999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.352416309999999</c:v>
+                  <c:v>9.1705122899999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.156885150000001</c:v>
+                  <c:v>10.520468709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.49581263</c:v>
+                  <c:v>8.0708819030000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.406737870000001</c:v>
+                  <c:v>5.1888690649999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1397967990000009</c:v>
+                  <c:v>2.467497888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1429983949999993</c:v>
+                  <c:v>-0.32109958500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2509914020000004</c:v>
+                  <c:v>-0.98170844199999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92328294799999999</c:v>
+                  <c:v>1.8519499589999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.259520864</c:v>
+                  <c:v>3.4560039890000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.387227781</c:v>
+                  <c:v>1.206477891</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.796433736</c:v>
+                  <c:v>-1.567256258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5499,61 +5497,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>23.434740009999999</c:v>
+                  <c:v>10.18693395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.6024818</c:v>
+                  <c:v>8.5584117309999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.495398290000001</c:v>
+                  <c:v>6.814159343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.791305260000001</c:v>
+                  <c:v>6.8807593159999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.637799529999999</c:v>
+                  <c:v>5.7733790000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.412717150000001</c:v>
+                  <c:v>5.4588927199999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.87169428</c:v>
+                  <c:v>4.4753702090000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.220186050000001</c:v>
+                  <c:v>2.8949788550000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.59632302</c:v>
+                  <c:v>1.0433318739999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8192133899999998</c:v>
+                  <c:v>-1.161757588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.185349414</c:v>
+                  <c:v>-2.0025914889999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5541586839999999</c:v>
+                  <c:v>-1.779032918</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8392510770000001</c:v>
+                  <c:v>-1.4092358410000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92761030300000002</c:v>
+                  <c:v>-1.824588898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.88611566799999997</c:v>
+                  <c:v>-2.7335114479999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.75694962099999996</c:v>
+                  <c:v>-2.840946175</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.8866949649999998</c:v>
+                  <c:v>-3.9862279699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.7295944309999998</c:v>
+                  <c:v>-5.6983565909999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.5940718540000001</c:v>
+                  <c:v>-6.4461439470000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5602,64 +5600,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-6.8486022609999999</c:v>
+                  <c:v>-3.791447878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.7919518229999998</c:v>
+                  <c:v>-3.626884054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.5733610520000001</c:v>
+                  <c:v>-3.4073065539999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7852823969999996</c:v>
+                  <c:v>-3.009617655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9575694189999999</c:v>
+                  <c:v>-2.7966077839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.306363492</c:v>
+                  <c:v>-2.7831053670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9134639279999996</c:v>
+                  <c:v>-2.5425806500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.5616992319999996</c:v>
+                  <c:v>-3.231658962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.7125109389999995</c:v>
+                  <c:v>-4.0420881120000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.3819418</c:v>
+                  <c:v>-4.3025065480000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-11.03655644</c:v>
+                  <c:v>-3.9152920249999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.3246464230000008</c:v>
+                  <c:v>-4.4927720170000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.4815966940000003</c:v>
+                  <c:v>-4.5698659939999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.3934269949999996</c:v>
+                  <c:v>-4.4892756880000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.1944498370000001</c:v>
+                  <c:v>-3.7852382809999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0643321100000001</c:v>
+                  <c:v>-3.1746169950000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8764375339999999</c:v>
+                  <c:v>-3.1709711519999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.6639096410000001</c:v>
+                  <c:v>-3.2568835049999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.9571365299999997</c:v>
+                  <c:v>-3.7210298879999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.6655530929999998</c:v>
+                  <c:v>-3.912085254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,64 +5669,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>24.226315110000002</c:v>
+                  <c:v>10.82894993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.476450320000001</c:v>
+                  <c:v>9.4892205660000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.816597999999999</c:v>
+                  <c:v>7.5544400310000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.529342959999999</c:v>
+                  <c:v>5.5991107859999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9295639330000007</c:v>
+                  <c:v>3.3860353989999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9250353569999996</c:v>
+                  <c:v>1.41688905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9264668039999999</c:v>
+                  <c:v>-3.7587567000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.50583176</c:v>
+                  <c:v>-1.997676037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4410843440000001</c:v>
+                  <c:v>-3.6524676340000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.5487294199999999</c:v>
+                  <c:v>-5.1947919899999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.7377649120000003</c:v>
+                  <c:v>-6.8118200299999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.2868112859999998</c:v>
+                  <c:v>-7.9280246449999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4144077079999999</c:v>
+                  <c:v>-7.0112000920000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.895431707</c:v>
+                  <c:v>-4.7114933509999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9088799820000002</c:v>
+                  <c:v>-2.2929993469999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.225141369999999</c:v>
+                  <c:v>0.25944779800000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.04671703</c:v>
+                  <c:v>2.8756223649999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.229701200000001</c:v>
+                  <c:v>5.4215291079999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.86775227</c:v>
+                  <c:v>7.3898938169999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.03768921</c:v>
+                  <c:v>9.7457173439999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5817,7 +5815,6 @@
         <c:axId val="392341424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6411,61 +6408,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-0.17432634</c:v>
+                  <c:v>-7.3187433999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1336753999999998E-2</c:v>
+                  <c:v>-0.45159025899999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2975776E-2</c:v>
+                  <c:v>-1.073439032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0237733999999996E-2</c:v>
+                  <c:v>-0.33101379199999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21479092899999999</c:v>
+                  <c:v>-1.53641669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.364148678</c:v>
+                  <c:v>-1.8104858619999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46758920999999998</c:v>
+                  <c:v>-2.0024196409999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57844602700000003</c:v>
+                  <c:v>-1.8044874070000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68744717200000005</c:v>
+                  <c:v>-1.285270234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87385952499999997</c:v>
+                  <c:v>-0.20472905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4025702120000001</c:v>
+                  <c:v>0.41124728500000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.99309048</c:v>
+                  <c:v>0.25065236499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4648830080000002</c:v>
+                  <c:v>-0.42624868900000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4644206519999998</c:v>
+                  <c:v>-0.69136958699999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8820673929999998</c:v>
+                  <c:v>0.29862867599999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5070497440000001</c:v>
+                  <c:v>0.65655361400000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8222775069999999</c:v>
+                  <c:v>0.60922746999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1295485000000003</c:v>
+                  <c:v>1.108209803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4774719379999999</c:v>
+                  <c:v>1.4613604549999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6477,61 +6474,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-3.9701439509999998</c:v>
+                  <c:v>-1.0662534960000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2699474589999999</c:v>
+                  <c:v>1.229366382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8116244100000001</c:v>
+                  <c:v>1.198797052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1140123190000004</c:v>
+                  <c:v>-1.3987769699999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4538327180000001</c:v>
+                  <c:v>-0.76357613199999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3871872070000002</c:v>
+                  <c:v>2.010276164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.40373325</c:v>
+                  <c:v>4.6933724989999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.36771515</c:v>
+                  <c:v>7.0682910789999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.352416309999999</c:v>
+                  <c:v>9.1705122899999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.156885150000001</c:v>
+                  <c:v>10.520468709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.49581263</c:v>
+                  <c:v>8.0708819030000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.406737870000001</c:v>
+                  <c:v>5.1888690649999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1397967990000009</c:v>
+                  <c:v>2.467497888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1429983949999993</c:v>
+                  <c:v>-0.32109958500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2509914020000004</c:v>
+                  <c:v>-0.98170844199999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92328294799999999</c:v>
+                  <c:v>1.8519499589999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.259520864</c:v>
+                  <c:v>3.4560039890000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.387227781</c:v>
+                  <c:v>1.206477891</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.796433736</c:v>
+                  <c:v>-1.567256258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6577,64 +6574,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.8636537830000002</c:v>
+                  <c:v>0.18717768800000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0539869409999998</c:v>
+                  <c:v>1.8394835359999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.620097103</c:v>
+                  <c:v>2.4437609349999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0685527409999995</c:v>
+                  <c:v>2.9027499680000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2757777850000007</c:v>
+                  <c:v>3.738838533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7840632280000008</c:v>
+                  <c:v>4.4089207339999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2045821429999997</c:v>
+                  <c:v>4.5794457299999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8306503579999998</c:v>
+                  <c:v>5.0635578639999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0797169499999999</c:v>
+                  <c:v>5.0091343190000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1396841999999996</c:v>
+                  <c:v>4.0017496939999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41702152999999997</c:v>
+                  <c:v>2.8000621799999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7294332670000001</c:v>
+                  <c:v>0.85025380900000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.1754398699999999</c:v>
+                  <c:v>-1.0356693640000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.2455440070000003</c:v>
+                  <c:v>-2.1174695319999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.0220417099999999</c:v>
+                  <c:v>-3.0395794920000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.788168046</c:v>
+                  <c:v>-4.0539841169999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.937802016</c:v>
+                  <c:v>-5.3474307630000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.1027992649999998</c:v>
+                  <c:v>-4.4100935210000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1956552660000002</c:v>
+                  <c:v>-3.0685697429999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.28192365200000002</c:v>
+                  <c:v>-2.0263945190000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6646,64 +6643,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-6.8486022609999999</c:v>
+                  <c:v>-3.791447878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.7919518229999998</c:v>
+                  <c:v>-3.626884054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.5733610520000001</c:v>
+                  <c:v>-3.4073065539999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7852823969999996</c:v>
+                  <c:v>-3.009617655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9575694189999999</c:v>
+                  <c:v>-2.7966077839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.306363492</c:v>
+                  <c:v>-2.7831053670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9134639279999996</c:v>
+                  <c:v>-2.5425806500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.5616992319999996</c:v>
+                  <c:v>-3.231658962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.7125109389999995</c:v>
+                  <c:v>-4.0420881120000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.3819418</c:v>
+                  <c:v>-4.3025065480000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-11.03655644</c:v>
+                  <c:v>-3.9152920249999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.3246464230000008</c:v>
+                  <c:v>-4.4927720170000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.4815966940000003</c:v>
+                  <c:v>-4.5698659939999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.3934269949999996</c:v>
+                  <c:v>-4.4892756880000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.1944498370000001</c:v>
+                  <c:v>-3.7852382809999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0643321100000001</c:v>
+                  <c:v>-3.1746169950000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8764375339999999</c:v>
+                  <c:v>-3.1709711519999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.6639096410000001</c:v>
+                  <c:v>-3.2568835049999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.9571365299999997</c:v>
+                  <c:v>-3.7210298879999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.6655530929999998</c:v>
+                  <c:v>-3.912085254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6792,7 +6789,6 @@
         <c:axId val="392341424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7876,121 +7872,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>3.8636537830000002</c:v>
+                  <c:v>0.18717768800000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0539869409999998</c:v>
+                  <c:v>1.8394835359999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.620097103</c:v>
+                  <c:v>2.4437609349999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0685527409999995</c:v>
+                  <c:v>2.9027499680000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2757777850000007</c:v>
+                  <c:v>3.738838533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7840632280000008</c:v>
+                  <c:v>4.4089207339999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2045821429999997</c:v>
+                  <c:v>4.5794457299999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8306503579999998</c:v>
+                  <c:v>5.0635578639999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0797169499999999</c:v>
+                  <c:v>5.0091343190000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1396841999999996</c:v>
+                  <c:v>4.0017496939999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41702152999999997</c:v>
+                  <c:v>2.8000621799999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7294332670000001</c:v>
+                  <c:v>0.85025380900000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.1754398699999999</c:v>
+                  <c:v>-1.0356693640000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.2455440070000003</c:v>
+                  <c:v>-2.1174695319999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.0220417099999999</c:v>
+                  <c:v>-3.0395794920000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.788168046</c:v>
+                  <c:v>-4.0539841169999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.937802016</c:v>
+                  <c:v>-5.3474307630000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.1027992649999998</c:v>
+                  <c:v>-4.4100935210000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1956552660000002</c:v>
+                  <c:v>-3.0685697429999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.28192365200000002</c:v>
+                  <c:v>-2.0263945190000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.17432634</c:v>
+                  <c:v>-7.3187433999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.1336753999999998E-2</c:v>
+                  <c:v>-0.45159025899999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2975776E-2</c:v>
+                  <c:v>-1.073439032</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0237733999999996E-2</c:v>
+                  <c:v>-0.33101379199999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.21479092899999999</c:v>
+                  <c:v>-1.53641669</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.364148678</c:v>
+                  <c:v>-1.8104858619999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.46758920999999998</c:v>
+                  <c:v>-2.0024196409999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.57844602700000003</c:v>
+                  <c:v>-1.8044874070000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.68744717200000005</c:v>
+                  <c:v>-1.285270234</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.87385952499999997</c:v>
+                  <c:v>-0.20472905</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4025702120000001</c:v>
+                  <c:v>0.41124728500000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.99309048</c:v>
+                  <c:v>0.25065236499999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4648830080000002</c:v>
+                  <c:v>-0.42624868900000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4644206519999998</c:v>
+                  <c:v>-0.69136958699999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8820673929999998</c:v>
+                  <c:v>0.29862867599999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5070497440000001</c:v>
+                  <c:v>0.65655361400000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.8222775069999999</c:v>
+                  <c:v>0.60922746999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.1295485000000003</c:v>
+                  <c:v>1.108209803</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4774719379999999</c:v>
+                  <c:v>1.4613604549999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8002,121 +7998,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>24.226315110000002</c:v>
+                  <c:v>10.82894993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.476450320000001</c:v>
+                  <c:v>9.4892205660000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.816597999999999</c:v>
+                  <c:v>7.5544400310000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.529342959999999</c:v>
+                  <c:v>5.5991107859999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9295639330000007</c:v>
+                  <c:v>3.3860353989999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9250353569999996</c:v>
+                  <c:v>1.41688905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9264668039999999</c:v>
+                  <c:v>-3.7587567000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.50583176</c:v>
+                  <c:v>-1.997676037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4410843440000001</c:v>
+                  <c:v>-3.6524676340000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.5487294199999999</c:v>
+                  <c:v>-5.1947919899999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.7377649120000003</c:v>
+                  <c:v>-6.8118200299999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.2868112859999998</c:v>
+                  <c:v>-7.9280246449999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4144077079999999</c:v>
+                  <c:v>-7.0112000920000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.895431707</c:v>
+                  <c:v>-4.7114933509999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9088799820000002</c:v>
+                  <c:v>-2.2929993469999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.225141369999999</c:v>
+                  <c:v>0.25944779800000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.04671703</c:v>
+                  <c:v>2.8756223649999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.229701200000001</c:v>
+                  <c:v>5.4215291079999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.86775227</c:v>
+                  <c:v>7.3898938169999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.03768921</c:v>
+                  <c:v>9.7457173439999991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.434740009999999</c:v>
+                  <c:v>10.18693395</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.6024818</c:v>
+                  <c:v>8.5584117309999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.495398290000001</c:v>
+                  <c:v>6.814159343</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.791305260000001</c:v>
+                  <c:v>6.8807593159999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.637799529999999</c:v>
+                  <c:v>5.7733790000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.412717150000001</c:v>
+                  <c:v>5.4588927199999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.87169428</c:v>
+                  <c:v>4.4753702090000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.220186050000001</c:v>
+                  <c:v>2.8949788550000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.59632302</c:v>
+                  <c:v>1.0433318739999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8192133899999998</c:v>
+                  <c:v>-1.161757588</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.185349414</c:v>
+                  <c:v>-2.0025914889999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.5541586839999999</c:v>
+                  <c:v>-1.779032918</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8392510770000001</c:v>
+                  <c:v>-1.4092358410000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92761030300000002</c:v>
+                  <c:v>-1.824588898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.88611566799999997</c:v>
+                  <c:v>-2.7335114479999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.75694962099999996</c:v>
+                  <c:v>-2.840946175</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.8866949649999998</c:v>
+                  <c:v>-3.9862279699999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.7295944309999998</c:v>
+                  <c:v>-5.6983565909999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-6.5940718540000001</c:v>
+                  <c:v>-6.4461439470000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9317,121 +9313,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>-6.8486022609999999</c:v>
+                  <c:v>-3.791447878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.7919518229999998</c:v>
+                  <c:v>-3.626884054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.5733610520000001</c:v>
+                  <c:v>-3.4073065539999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7852823969999996</c:v>
+                  <c:v>-3.009617655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9575694189999999</c:v>
+                  <c:v>-2.7966077839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.306363492</c:v>
+                  <c:v>-2.7831053670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9134639279999996</c:v>
+                  <c:v>-2.5425806500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.5616992319999996</c:v>
+                  <c:v>-3.231658962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.7125109389999995</c:v>
+                  <c:v>-4.0420881120000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.3819418</c:v>
+                  <c:v>-4.3025065480000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-11.03655644</c:v>
+                  <c:v>-3.9152920249999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.3246464230000008</c:v>
+                  <c:v>-4.4927720170000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.4815966940000003</c:v>
+                  <c:v>-4.5698659939999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.3934269949999996</c:v>
+                  <c:v>-4.4892756880000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.1944498370000001</c:v>
+                  <c:v>-3.7852382809999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0643321100000001</c:v>
+                  <c:v>-3.1746169950000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8764375339999999</c:v>
+                  <c:v>-3.1709711519999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.6639096410000001</c:v>
+                  <c:v>-3.2568835049999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.9571365299999997</c:v>
+                  <c:v>-3.7210298879999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.6655530929999998</c:v>
+                  <c:v>-3.912085254</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.9701439509999998</c:v>
+                  <c:v>-1.0662534960000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.2699474589999999</c:v>
+                  <c:v>1.229366382</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8116244100000001</c:v>
+                  <c:v>1.198797052</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1140123190000004</c:v>
+                  <c:v>-1.3987769699999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.4538327180000001</c:v>
+                  <c:v>-0.76357613199999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.3871872070000002</c:v>
+                  <c:v>2.010276164</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.40373325</c:v>
+                  <c:v>4.6933724989999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.36771515</c:v>
+                  <c:v>7.0682910789999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.352416309999999</c:v>
+                  <c:v>9.1705122899999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.156885150000001</c:v>
+                  <c:v>10.520468709999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.49581263</c:v>
+                  <c:v>8.0708819030000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.406737870000001</c:v>
+                  <c:v>5.1888690649999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1397967990000009</c:v>
+                  <c:v>2.467497888</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.1429983949999993</c:v>
+                  <c:v>-0.32109958500000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.2509914020000004</c:v>
+                  <c:v>-0.98170844199999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92328294799999999</c:v>
+                  <c:v>1.8519499589999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.259520864</c:v>
+                  <c:v>3.4560039890000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3.387227781</c:v>
+                  <c:v>1.206477891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-5.796433736</c:v>
+                  <c:v>-1.567256258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9443,121 +9439,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>24.226315110000002</c:v>
+                  <c:v>10.82894993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.476450320000001</c:v>
+                  <c:v>9.4892205660000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.816597999999999</c:v>
+                  <c:v>7.5544400310000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.529342959999999</c:v>
+                  <c:v>5.5991107859999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9295639330000007</c:v>
+                  <c:v>3.3860353989999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9250353569999996</c:v>
+                  <c:v>1.41688905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9264668039999999</c:v>
+                  <c:v>-3.7587567000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.50583176</c:v>
+                  <c:v>-1.997676037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4410843440000001</c:v>
+                  <c:v>-3.6524676340000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.5487294199999999</c:v>
+                  <c:v>-5.1947919899999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.7377649120000003</c:v>
+                  <c:v>-6.8118200299999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.2868112859999998</c:v>
+                  <c:v>-7.9280246449999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4144077079999999</c:v>
+                  <c:v>-7.0112000920000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.895431707</c:v>
+                  <c:v>-4.7114933509999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9088799820000002</c:v>
+                  <c:v>-2.2929993469999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.225141369999999</c:v>
+                  <c:v>0.25944779800000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.04671703</c:v>
+                  <c:v>2.8756223649999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.229701200000001</c:v>
+                  <c:v>5.4215291079999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.86775227</c:v>
+                  <c:v>7.3898938169999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.03768921</c:v>
+                  <c:v>9.7457173439999991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.434740009999999</c:v>
+                  <c:v>10.18693395</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.6024818</c:v>
+                  <c:v>8.5584117309999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.495398290000001</c:v>
+                  <c:v>6.814159343</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.791305260000001</c:v>
+                  <c:v>6.8807593159999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.637799529999999</c:v>
+                  <c:v>5.7733790000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.412717150000001</c:v>
+                  <c:v>5.4588927199999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.87169428</c:v>
+                  <c:v>4.4753702090000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.220186050000001</c:v>
+                  <c:v>2.8949788550000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.59632302</c:v>
+                  <c:v>1.0433318739999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8192133899999998</c:v>
+                  <c:v>-1.161757588</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.185349414</c:v>
+                  <c:v>-2.0025914889999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.5541586839999999</c:v>
+                  <c:v>-1.779032918</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8392510770000001</c:v>
+                  <c:v>-1.4092358410000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92761030300000002</c:v>
+                  <c:v>-1.824588898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.88611566799999997</c:v>
+                  <c:v>-2.7335114479999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.75694962099999996</c:v>
+                  <c:v>-2.840946175</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.8866949649999998</c:v>
+                  <c:v>-3.9862279699999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.7295944309999998</c:v>
+                  <c:v>-5.6983565909999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-6.5940718540000001</c:v>
+                  <c:v>-6.4461439470000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10758,121 +10754,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>3.8636537830000002</c:v>
+                  <c:v>0.18717768800000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0539869409999998</c:v>
+                  <c:v>1.8394835359999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.620097103</c:v>
+                  <c:v>2.4437609349999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0685527409999995</c:v>
+                  <c:v>2.9027499680000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2757777850000007</c:v>
+                  <c:v>3.738838533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7840632280000008</c:v>
+                  <c:v>4.4089207339999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2045821429999997</c:v>
+                  <c:v>4.5794457299999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8306503579999998</c:v>
+                  <c:v>5.0635578639999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0797169499999999</c:v>
+                  <c:v>5.0091343190000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1396841999999996</c:v>
+                  <c:v>4.0017496939999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41702152999999997</c:v>
+                  <c:v>2.8000621799999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7294332670000001</c:v>
+                  <c:v>0.85025380900000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.1754398699999999</c:v>
+                  <c:v>-1.0356693640000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.2455440070000003</c:v>
+                  <c:v>-2.1174695319999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.0220417099999999</c:v>
+                  <c:v>-3.0395794920000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.788168046</c:v>
+                  <c:v>-4.0539841169999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.937802016</c:v>
+                  <c:v>-5.3474307630000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.1027992649999998</c:v>
+                  <c:v>-4.4100935210000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1956552660000002</c:v>
+                  <c:v>-3.0685697429999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.28192365200000002</c:v>
+                  <c:v>-2.0263945190000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.17432634</c:v>
+                  <c:v>-7.3187433999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.1336753999999998E-2</c:v>
+                  <c:v>-0.45159025899999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2975776E-2</c:v>
+                  <c:v>-1.073439032</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0237733999999996E-2</c:v>
+                  <c:v>-0.33101379199999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.21479092899999999</c:v>
+                  <c:v>-1.53641669</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.364148678</c:v>
+                  <c:v>-1.8104858619999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.46758920999999998</c:v>
+                  <c:v>-2.0024196409999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.57844602700000003</c:v>
+                  <c:v>-1.8044874070000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.68744717200000005</c:v>
+                  <c:v>-1.285270234</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.87385952499999997</c:v>
+                  <c:v>-0.20472905</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4025702120000001</c:v>
+                  <c:v>0.41124728500000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.99309048</c:v>
+                  <c:v>0.25065236499999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4648830080000002</c:v>
+                  <c:v>-0.42624868900000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4644206519999998</c:v>
+                  <c:v>-0.69136958699999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8820673929999998</c:v>
+                  <c:v>0.29862867599999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5070497440000001</c:v>
+                  <c:v>0.65655361400000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.8222775069999999</c:v>
+                  <c:v>0.60922746999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.1295485000000003</c:v>
+                  <c:v>1.108209803</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4774719379999999</c:v>
+                  <c:v>1.4613604549999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10884,121 +10880,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>-6.8486022609999999</c:v>
+                  <c:v>-3.791447878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.7919518229999998</c:v>
+                  <c:v>-3.626884054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.5733610520000001</c:v>
+                  <c:v>-3.4073065539999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7852823969999996</c:v>
+                  <c:v>-3.009617655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9575694189999999</c:v>
+                  <c:v>-2.7966077839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.306363492</c:v>
+                  <c:v>-2.7831053670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9134639279999996</c:v>
+                  <c:v>-2.5425806500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.5616992319999996</c:v>
+                  <c:v>-3.231658962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.7125109389999995</c:v>
+                  <c:v>-4.0420881120000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.3819418</c:v>
+                  <c:v>-4.3025065480000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-11.03655644</c:v>
+                  <c:v>-3.9152920249999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.3246464230000008</c:v>
+                  <c:v>-4.4927720170000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.4815966940000003</c:v>
+                  <c:v>-4.5698659939999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.3934269949999996</c:v>
+                  <c:v>-4.4892756880000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.1944498370000001</c:v>
+                  <c:v>-3.7852382809999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0643321100000001</c:v>
+                  <c:v>-3.1746169950000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8764375339999999</c:v>
+                  <c:v>-3.1709711519999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.6639096410000001</c:v>
+                  <c:v>-3.2568835049999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.9571365299999997</c:v>
+                  <c:v>-3.7210298879999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.6655530929999998</c:v>
+                  <c:v>-3.912085254</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.9701439509999998</c:v>
+                  <c:v>-1.0662534960000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.2699474589999999</c:v>
+                  <c:v>1.229366382</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8116244100000001</c:v>
+                  <c:v>1.198797052</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1140123190000004</c:v>
+                  <c:v>-1.3987769699999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.4538327180000001</c:v>
+                  <c:v>-0.76357613199999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.3871872070000002</c:v>
+                  <c:v>2.010276164</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.40373325</c:v>
+                  <c:v>4.6933724989999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.36771515</c:v>
+                  <c:v>7.0682910789999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.352416309999999</c:v>
+                  <c:v>9.1705122899999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.156885150000001</c:v>
+                  <c:v>10.520468709999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.49581263</c:v>
+                  <c:v>8.0708819030000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.406737870000001</c:v>
+                  <c:v>5.1888690649999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1397967990000009</c:v>
+                  <c:v>2.467497888</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.1429983949999993</c:v>
+                  <c:v>-0.32109958500000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.2509914020000004</c:v>
+                  <c:v>-0.98170844199999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92328294799999999</c:v>
+                  <c:v>1.8519499589999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.259520864</c:v>
+                  <c:v>3.4560039890000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3.387227781</c:v>
+                  <c:v>1.206477891</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-5.796433736</c:v>
+                  <c:v>-1.567256258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16316,8 +16312,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16352,28 +16348,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3.8636537830000002</v>
+        <v>0.18717768800000001</v>
       </c>
       <c r="B2">
-        <v>24.226315110000002</v>
+        <v>10.82894993</v>
       </c>
       <c r="C2">
-        <v>-6.8486022609999999</v>
+        <v>-3.791447878</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(A$2:A$1048576,$E2)</f>
-        <v>3.8636537830000002</v>
+        <v>0.18717768800000001</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">INDEX(B$2:B$1048576,$E2)</f>
-        <v>24.226315110000002</v>
+        <v>10.82894993</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">INDEX(C$2:C$1048576,$E2)</f>
-        <v>-6.8486022609999999</v>
+        <v>-3.791447878</v>
       </c>
       <c r="K2" s="3">
         <v>66047</v>
@@ -16381,28 +16377,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6.0539869409999998</v>
+        <v>1.8394835359999999</v>
       </c>
       <c r="B3">
-        <v>22.476450320000001</v>
+        <v>9.4892205660000002</v>
       </c>
       <c r="C3">
-        <v>-7.7919518229999998</v>
+        <v>-3.626884054</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">INDEX(A$2:A$1048576,$E3)</f>
-        <v>6.0539869409999998</v>
+        <v>1.8394835359999999</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">INDEX(B$2:B$1048576,$E3)</f>
-        <v>22.476450320000001</v>
+        <v>9.4892205660000002</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">INDEX(C$2:C$1048576,$E3)</f>
-        <v>-7.7919518229999998</v>
+        <v>-3.626884054</v>
       </c>
       <c r="K3" s="12">
         <v>81407</v>
@@ -16410,28 +16406,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7.620097103</v>
+        <v>2.4437609349999998</v>
       </c>
       <c r="B4">
-        <v>18.816597999999999</v>
+        <v>7.5544400310000004</v>
       </c>
       <c r="C4">
-        <v>-6.5733610520000001</v>
+        <v>-3.4073065539999998</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">INDEX(A$2:A$1048576,$E4)</f>
-        <v>7.620097103</v>
+        <v>2.4437609349999998</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">INDEX(B$2:B$1048576,$E4)</f>
-        <v>18.816597999999999</v>
+        <v>7.5544400310000004</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">INDEX(C$2:C$1048576,$E4)</f>
-        <v>-6.5733610520000001</v>
+        <v>-3.4073065539999998</v>
       </c>
       <c r="K4" s="13">
         <v>96767</v>
@@ -16439,28 +16435,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8.0685527409999995</v>
+        <v>2.9027499680000002</v>
       </c>
       <c r="B5">
-        <v>14.529342959999999</v>
+        <v>5.5991107859999998</v>
       </c>
       <c r="C5">
-        <v>-4.7852823969999996</v>
+        <v>-3.009617655</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">INDEX(A$2:A$1048576,$E5)</f>
-        <v>8.0685527409999995</v>
+        <v>2.9027499680000002</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">INDEX(B$2:B$1048576,$E5)</f>
-        <v>14.529342959999999</v>
+        <v>5.5991107859999998</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">INDEX(C$2:C$1048576,$E5)</f>
-        <v>-4.7852823969999996</v>
+        <v>-3.009617655</v>
       </c>
       <c r="K5" s="14">
         <v>111871</v>
@@ -16468,28 +16464,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8.2757777850000007</v>
+        <v>3.738838533</v>
       </c>
       <c r="B6">
-        <v>9.9295639330000007</v>
+        <v>3.3860353989999998</v>
       </c>
       <c r="C6">
-        <v>-3.9575694189999999</v>
+        <v>-2.7966077839999999</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">INDEX(A$2:A$1048576,$E6)</f>
-        <v>8.2757777850000007</v>
+        <v>3.738838533</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">INDEX(B$2:B$1048576,$E6)</f>
-        <v>9.9295639330000007</v>
+        <v>3.3860353989999998</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">INDEX(C$2:C$1048576,$E6)</f>
-        <v>-3.9575694189999999</v>
+        <v>-2.7966077839999999</v>
       </c>
       <c r="K6" s="15">
         <v>127231</v>
@@ -16497,28 +16493,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.7840632280000008</v>
+        <v>4.4089207339999996</v>
       </c>
       <c r="B7">
-        <v>5.9250353569999996</v>
+        <v>1.41688905</v>
       </c>
       <c r="C7">
-        <v>-5.306363492</v>
+        <v>-2.7831053670000001</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">INDEX(A$2:A$1048576,$E7)</f>
-        <v>8.7840632280000008</v>
+        <v>4.4089207339999996</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">INDEX(B$2:B$1048576,$E7)</f>
-        <v>5.9250353569999996</v>
+        <v>1.41688905</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">INDEX(C$2:C$1048576,$E7)</f>
-        <v>-5.306363492</v>
+        <v>-2.7831053670000001</v>
       </c>
       <c r="K7" s="16">
         <v>131026</v>
@@ -16526,28 +16522,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8.2045821429999997</v>
+        <v>4.5794457299999998</v>
       </c>
       <c r="B8">
-        <v>1.9264668039999999</v>
+        <v>-3.7587567000000002E-2</v>
       </c>
       <c r="C8">
-        <v>-5.9134639279999996</v>
+        <v>-2.5425806500000001</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">INDEX(A$2:A$1048576,$E8)</f>
-        <v>8.2045821429999997</v>
+        <v>4.5794457299999998</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8">INDEX(B$2:B$1048576,$E8)</f>
-        <v>1.9264668039999999</v>
+        <v>-3.7587567000000002E-2</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">INDEX(C$2:C$1048576,$E8)</f>
-        <v>-5.9134639279999996</v>
+        <v>-2.5425806500000001</v>
       </c>
       <c r="K8" s="17">
         <v>130966</v>
@@ -16555,28 +16551,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.8306503579999998</v>
+        <v>5.0635578639999999</v>
       </c>
       <c r="B9">
-        <v>-1.50583176</v>
+        <v>-1.997676037</v>
       </c>
       <c r="C9">
-        <v>-7.5616992319999996</v>
+        <v>-3.231658962</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" ref="G9">INDEX(A$2:A$1048576,$E9)</f>
-        <v>7.8306503579999998</v>
+        <v>5.0635578639999999</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" ref="H9">INDEX(B$2:B$1048576,$E9)</f>
-        <v>-1.50583176</v>
+        <v>-1.997676037</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">INDEX(C$2:C$1048576,$E9)</f>
-        <v>-7.5616992319999996</v>
+        <v>-3.231658962</v>
       </c>
       <c r="K9" s="18">
         <v>130907</v>
@@ -16584,28 +16580,28 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7.0797169499999999</v>
+        <v>5.0091343190000002</v>
       </c>
       <c r="B10">
-        <v>-4.4410843440000001</v>
+        <v>-3.6524676340000002</v>
       </c>
       <c r="C10">
-        <v>-9.7125109389999995</v>
+        <v>-4.0420881120000001</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">INDEX(A$2:A$1048576,$E10)</f>
-        <v>7.0797169499999999</v>
+        <v>5.0091343190000002</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" ref="H10">INDEX(B$2:B$1048576,$E10)</f>
-        <v>-4.4410843440000001</v>
+        <v>-3.6524676340000002</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">INDEX(C$2:C$1048576,$E10)</f>
-        <v>-9.7125109389999995</v>
+        <v>-4.0420881120000001</v>
       </c>
       <c r="K10" s="19">
         <v>130847</v>
@@ -16613,28 +16609,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5.1396841999999996</v>
+        <v>4.0017496939999999</v>
       </c>
       <c r="B11">
-        <v>-7.5487294199999999</v>
+        <v>-5.1947919899999997</v>
       </c>
       <c r="C11">
-        <v>-10.3819418</v>
+        <v>-4.3025065480000002</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">INDEX(A$2:A$1048576,$E11)</f>
-        <v>5.1396841999999996</v>
+        <v>4.0017496939999999</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" ref="H11">INDEX(B$2:B$1048576,$E11)</f>
-        <v>-7.5487294199999999</v>
+        <v>-5.1947919899999997</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">INDEX(C$2:C$1048576,$E11)</f>
-        <v>-10.3819418</v>
+        <v>-4.3025065480000002</v>
       </c>
       <c r="K11" s="20">
         <v>2096897</v>
@@ -16642,28 +16638,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.41702152999999997</v>
+        <v>2.8000621799999998</v>
       </c>
       <c r="B12">
-        <v>-6.7377649120000003</v>
+        <v>-6.8118200299999998</v>
       </c>
       <c r="C12">
-        <v>-11.03655644</v>
+        <v>-3.9152920249999998</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">INDEX(A$2:A$1048576,$E12)</f>
-        <v>0.41702152999999997</v>
+        <v>2.8000621799999998</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" ref="H12">INDEX(B$2:B$1048576,$E12)</f>
-        <v>-6.7377649120000003</v>
+        <v>-6.8118200299999998</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">INDEX(C$2:C$1048576,$E12)</f>
-        <v>-11.03655644</v>
+        <v>-3.9152920249999998</v>
       </c>
       <c r="K12" s="21">
         <v>6029057</v>
@@ -16671,28 +16667,28 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-2.7294332670000001</v>
+        <v>0.85025380900000003</v>
       </c>
       <c r="B13">
-        <v>-4.2868112859999998</v>
+        <v>-7.9280246449999998</v>
       </c>
       <c r="C13">
-        <v>-9.3246464230000008</v>
+        <v>-4.4927720170000001</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">INDEX(A$2:A$1048576,$E13)</f>
-        <v>-2.7294332670000001</v>
+        <v>0.85025380900000003</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" ref="H13">INDEX(B$2:B$1048576,$E13)</f>
-        <v>-4.2868112859999998</v>
+        <v>-7.9280246449999998</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">INDEX(C$2:C$1048576,$E13)</f>
-        <v>-9.3246464230000008</v>
+        <v>-4.4927720170000001</v>
       </c>
       <c r="K13" s="22">
         <v>9895681</v>
@@ -16700,28 +16696,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-4.1754398699999999</v>
+        <v>-1.0356693640000001</v>
       </c>
       <c r="B14">
-        <v>-1.4144077079999999</v>
+        <v>-7.0112000920000002</v>
       </c>
       <c r="C14">
-        <v>-6.4815966940000003</v>
+        <v>-4.5698659939999997</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">INDEX(A$2:A$1048576,$E14)</f>
-        <v>-4.1754398699999999</v>
+        <v>-1.0356693640000001</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" ref="H14">INDEX(B$2:B$1048576,$E14)</f>
-        <v>-1.4144077079999999</v>
+        <v>-7.0112000920000002</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">INDEX(C$2:C$1048576,$E14)</f>
-        <v>-6.4815966940000003</v>
+        <v>-4.5698659939999997</v>
       </c>
       <c r="K14" s="23">
         <v>13827841</v>
@@ -16729,28 +16725,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-5.2455440070000003</v>
+        <v>-2.1174695319999999</v>
       </c>
       <c r="B15">
-        <v>1.895431707</v>
+        <v>-4.7114933509999997</v>
       </c>
       <c r="C15">
-        <v>-4.3934269949999996</v>
+        <v>-4.4892756880000002</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" ref="G15">INDEX(A$2:A$1048576,$E15)</f>
-        <v>-5.2455440070000003</v>
+        <v>-2.1174695319999999</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" ref="H15">INDEX(B$2:B$1048576,$E15)</f>
-        <v>1.895431707</v>
+        <v>-4.7114933509999997</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">INDEX(C$2:C$1048576,$E15)</f>
-        <v>-4.3934269949999996</v>
+        <v>-4.4892756880000002</v>
       </c>
       <c r="K15" s="10">
         <v>16773121</v>
@@ -16758,28 +16754,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-6.0220417099999999</v>
+        <v>-3.0395794920000001</v>
       </c>
       <c r="B16">
-        <v>5.9088799820000002</v>
+        <v>-2.2929993469999999</v>
       </c>
       <c r="C16">
-        <v>-3.1944498370000001</v>
+        <v>-3.7852382809999998</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
       </c>
       <c r="G16" cm="1">
         <f t="array" ref="G16">INDEX(A$2:A$1048576,$E16)</f>
-        <v>-6.0220417099999999</v>
+        <v>-3.0395794920000001</v>
       </c>
       <c r="H16" cm="1">
         <f t="array" ref="H16">INDEX(B$2:B$1048576,$E16)</f>
-        <v>5.9088799820000002</v>
+        <v>-2.2929993469999999</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">INDEX(C$2:C$1048576,$E16)</f>
-        <v>-3.1944498370000001</v>
+        <v>-3.7852382809999998</v>
       </c>
       <c r="K16" s="6">
         <v>16757761</v>
@@ -16787,28 +16783,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-6.788168046</v>
+        <v>-4.0539841169999997</v>
       </c>
       <c r="B17">
-        <v>10.225141369999999</v>
+        <v>0.25944779800000001</v>
       </c>
       <c r="C17">
-        <v>-3.0643321100000001</v>
+        <v>-3.1746169950000001</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">INDEX(A$2:A$1048576,$E17)</f>
-        <v>-6.788168046</v>
+        <v>-4.0539841169999997</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" ref="H17">INDEX(B$2:B$1048576,$E17)</f>
-        <v>10.225141369999999</v>
+        <v>0.25944779800000001</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">INDEX(C$2:C$1048576,$E17)</f>
-        <v>-3.0643321100000001</v>
+        <v>-3.1746169950000001</v>
       </c>
       <c r="K17" s="24">
         <v>16742657</v>
@@ -16816,28 +16812,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-6.937802016</v>
+        <v>-5.3474307630000002</v>
       </c>
       <c r="B18">
-        <v>15.04671703</v>
+        <v>2.8756223649999999</v>
       </c>
       <c r="C18">
-        <v>-4.8764375339999999</v>
+        <v>-3.1709711519999999</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" ref="G18">INDEX(A$2:A$1048576,$E18)</f>
-        <v>-6.937802016</v>
+        <v>-5.3474307630000002</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" ref="H18">INDEX(B$2:B$1048576,$E18)</f>
-        <v>15.04671703</v>
+        <v>2.8756223649999999</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">INDEX(C$2:C$1048576,$E18)</f>
-        <v>-4.8764375339999999</v>
+        <v>-3.1709711519999999</v>
       </c>
       <c r="K18" s="25">
         <v>16727297</v>
@@ -16845,28 +16841,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-6.1027992649999998</v>
+        <v>-4.4100935210000003</v>
       </c>
       <c r="B19">
-        <v>19.229701200000001</v>
+        <v>5.4215291079999997</v>
       </c>
       <c r="C19">
-        <v>-7.6639096410000001</v>
+        <v>-3.2568835049999998</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" ref="G19">INDEX(A$2:A$1048576,$E19)</f>
-        <v>-6.1027992649999998</v>
+        <v>-4.4100935210000003</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" ref="H19">INDEX(B$2:B$1048576,$E19)</f>
-        <v>19.229701200000001</v>
+        <v>5.4215291079999997</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">INDEX(C$2:C$1048576,$E19)</f>
-        <v>-7.6639096410000001</v>
+        <v>-3.2568835049999998</v>
       </c>
       <c r="K19" s="26">
         <v>16711937</v>
@@ -16874,28 +16870,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-4.1956552660000002</v>
+        <v>-3.0685697429999998</v>
       </c>
       <c r="B20">
-        <v>22.86775227</v>
+        <v>7.3898938169999999</v>
       </c>
       <c r="C20">
-        <v>-6.9571365299999997</v>
+        <v>-3.7210298879999999</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" ref="G20">INDEX(A$2:A$1048576,$E20)</f>
-        <v>-4.1956552660000002</v>
+        <v>-3.0685697429999998</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" ref="H20">INDEX(B$2:B$1048576,$E20)</f>
-        <v>22.86775227</v>
+        <v>7.3898938169999999</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">INDEX(C$2:C$1048576,$E20)</f>
-        <v>-6.9571365299999997</v>
+        <v>-3.7210298879999999</v>
       </c>
       <c r="K20" s="27">
         <v>16711997</v>
@@ -16903,28 +16899,28 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-0.28192365200000002</v>
+        <v>-2.0263945190000001</v>
       </c>
       <c r="B21">
-        <v>25.03768921</v>
+        <v>9.7457173439999991</v>
       </c>
       <c r="C21">
-        <v>-6.6655530929999998</v>
+        <v>-3.912085254</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" ref="G21">INDEX(A$2:A$1048576,$E21)</f>
-        <v>-0.28192365200000002</v>
+        <v>-2.0263945190000001</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" ref="H21">INDEX(B$2:B$1048576,$E21)</f>
-        <v>25.03768921</v>
+        <v>9.7457173439999991</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">INDEX(C$2:C$1048576,$E21)</f>
-        <v>-6.6655530929999998</v>
+        <v>-3.912085254</v>
       </c>
       <c r="K21" s="28">
         <v>16712057</v>
@@ -16947,8 +16943,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16983,28 +16979,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.4774719379999999</v>
+        <v>1.4613604549999999</v>
       </c>
       <c r="B2">
-        <v>-6.5940718540000001</v>
+        <v>-6.4461439470000004</v>
       </c>
       <c r="C2">
-        <v>-5.796433736</v>
+        <v>-1.567256258</v>
       </c>
       <c r="E2" s="2">
         <v>19</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E2)</f>
-        <v>-0.17432634</v>
+        <v>-7.3187433999999996E-2</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E2)</f>
-        <v>23.434740009999999</v>
+        <v>10.18693395</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E2)</f>
-        <v>-3.9701439509999998</v>
+        <v>-1.0662534960000001</v>
       </c>
       <c r="K2" s="3">
         <v>66047</v>
@@ -17012,28 +17008,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4.1295485000000003</v>
+        <v>1.108209803</v>
       </c>
       <c r="B3">
-        <v>-4.7295944309999998</v>
+        <v>-5.6983565909999996</v>
       </c>
       <c r="C3">
-        <v>-3.387227781</v>
+        <v>1.206477891</v>
       </c>
       <c r="E3" s="2">
         <v>18</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E3)</f>
-        <v>-5.1336753999999998E-2</v>
+        <v>-0.45159025899999999</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E3)</f>
-        <v>21.6024818</v>
+        <v>8.5584117309999996</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E3)</f>
-        <v>-1.2699474589999999</v>
+        <v>1.229366382</v>
       </c>
       <c r="K3" s="12">
         <v>81407</v>
@@ -17041,28 +17037,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.8222775069999999</v>
+        <v>0.60922746999999999</v>
       </c>
       <c r="B4">
-        <v>-2.8866949649999998</v>
+        <v>-3.9862279699999998</v>
       </c>
       <c r="C4">
-        <v>-1.259520864</v>
+        <v>3.4560039890000001</v>
       </c>
       <c r="E4" s="2">
         <v>17</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E4)</f>
-        <v>2.2975776E-2</v>
+        <v>-1.073439032</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E4)</f>
-        <v>20.495398290000001</v>
+        <v>6.814159343</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E4)</f>
-        <v>1.8116244100000001</v>
+        <v>1.198797052</v>
       </c>
       <c r="K4" s="13">
         <v>96767</v>
@@ -17070,28 +17066,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.5070497440000001</v>
+        <v>0.65655361400000001</v>
       </c>
       <c r="B5">
-        <v>-0.75694962099999996</v>
+        <v>-2.840946175</v>
       </c>
       <c r="C5">
-        <v>0.92328294799999999</v>
+        <v>1.8519499589999999</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E5)</f>
-        <v>7.0237733999999996E-2</v>
+        <v>-0.33101379199999997</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E5)</f>
-        <v>19.791305260000001</v>
+        <v>6.8807593159999998</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E5)</f>
-        <v>5.1140123190000004</v>
+        <v>-1.3987769699999999</v>
       </c>
       <c r="K5" s="14">
         <v>111871</v>
@@ -17099,28 +17095,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.8820673929999998</v>
+        <v>0.29862867599999998</v>
       </c>
       <c r="B6">
-        <v>-0.88611566799999997</v>
+        <v>-2.7335114479999998</v>
       </c>
       <c r="C6">
-        <v>5.2509914020000004</v>
+        <v>-0.98170844199999996</v>
       </c>
       <c r="E6" s="2">
         <v>15</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E6)</f>
-        <v>0.21479092899999999</v>
+        <v>-1.53641669</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E6)</f>
-        <v>17.637799529999999</v>
+        <v>5.7733790000000003</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E6)</f>
-        <v>6.4538327180000001</v>
+        <v>-0.76357613199999996</v>
       </c>
       <c r="K6" s="15">
         <v>127231</v>
@@ -17128,28 +17124,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.4644206519999998</v>
+        <v>-0.69136958699999995</v>
       </c>
       <c r="B7">
-        <v>0.92761030300000002</v>
+        <v>-1.824588898</v>
       </c>
       <c r="C7">
-        <v>8.1429983949999993</v>
+        <v>-0.32109958500000002</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E7)</f>
-        <v>0.364148678</v>
+        <v>-1.8104858619999999</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E7)</f>
-        <v>15.412717150000001</v>
+        <v>5.4588927199999997</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E7)</f>
-        <v>8.3871872070000002</v>
+        <v>2.010276164</v>
       </c>
       <c r="K7" s="16">
         <v>131026</v>
@@ -17157,28 +17153,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.4648830080000002</v>
+        <v>-0.42624868900000001</v>
       </c>
       <c r="B8">
-        <v>3.8392510770000001</v>
+        <v>-1.4092358410000001</v>
       </c>
       <c r="C8">
-        <v>8.1397967990000009</v>
+        <v>2.467497888</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E8)</f>
-        <v>0.46758920999999998</v>
+        <v>-2.0024196409999999</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E8)</f>
-        <v>13.87169428</v>
+        <v>4.4753702090000003</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E8)</f>
-        <v>11.40373325</v>
+        <v>4.6933724989999996</v>
       </c>
       <c r="K8" s="17">
         <v>130966</v>
@@ -17186,28 +17182,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.99309048</v>
+        <v>0.25065236499999999</v>
       </c>
       <c r="B9">
-        <v>3.5541586839999999</v>
+        <v>-1.779032918</v>
       </c>
       <c r="C9">
-        <v>11.406737870000001</v>
+        <v>5.1888690649999996</v>
       </c>
       <c r="E9" s="2">
         <v>12</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" ref="G9">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E9)</f>
-        <v>0.57844602700000003</v>
+        <v>-1.8044874070000001</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" ref="H9">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E9)</f>
-        <v>12.220186050000001</v>
+        <v>2.8949788550000002</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E9)</f>
-        <v>14.36771515</v>
+        <v>7.0682910789999998</v>
       </c>
       <c r="K9" s="18">
         <v>130907</v>
@@ -17215,28 +17211,28 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.4025702120000001</v>
+        <v>0.41124728500000002</v>
       </c>
       <c r="B10">
-        <v>5.185349414</v>
+        <v>-2.0025914889999998</v>
       </c>
       <c r="C10">
-        <v>15.49581263</v>
+        <v>8.0708819030000001</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E10)</f>
-        <v>0.68744717200000005</v>
+        <v>-1.285270234</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" ref="H10">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E10)</f>
-        <v>10.59632302</v>
+        <v>1.0433318739999999</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E10)</f>
-        <v>17.352416309999999</v>
+        <v>9.1705122899999996</v>
       </c>
       <c r="K10" s="19">
         <v>130847</v>
@@ -17244,28 +17240,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.87385952499999997</v>
+        <v>-0.20472905</v>
       </c>
       <c r="B11">
-        <v>7.8192133899999998</v>
+        <v>-1.161757588</v>
       </c>
       <c r="C11">
-        <v>19.156885150000001</v>
+        <v>10.520468709999999</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E11)</f>
-        <v>0.87385952499999997</v>
+        <v>-0.20472905</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" ref="H11">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E11)</f>
-        <v>7.8192133899999998</v>
+        <v>-1.161757588</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E11)</f>
-        <v>19.156885150000001</v>
+        <v>10.520468709999999</v>
       </c>
       <c r="K11" s="20">
         <v>2096897</v>
@@ -17273,28 +17269,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.68744717200000005</v>
+        <v>-1.285270234</v>
       </c>
       <c r="B12">
-        <v>10.59632302</v>
+        <v>1.0433318739999999</v>
       </c>
       <c r="C12">
-        <v>17.352416309999999</v>
+        <v>9.1705122899999996</v>
       </c>
       <c r="E12" s="2">
         <v>9</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E12)</f>
-        <v>1.4025702120000001</v>
+        <v>0.41124728500000002</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" ref="H12">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E12)</f>
-        <v>5.185349414</v>
+        <v>-2.0025914889999998</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E12)</f>
-        <v>15.49581263</v>
+        <v>8.0708819030000001</v>
       </c>
       <c r="K12" s="21">
         <v>6029057</v>
@@ -17302,28 +17298,28 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.57844602700000003</v>
+        <v>-1.8044874070000001</v>
       </c>
       <c r="B13">
-        <v>12.220186050000001</v>
+        <v>2.8949788550000002</v>
       </c>
       <c r="C13">
-        <v>14.36771515</v>
+        <v>7.0682910789999998</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E13)</f>
-        <v>1.99309048</v>
+        <v>0.25065236499999999</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" ref="H13">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E13)</f>
-        <v>3.5541586839999999</v>
+        <v>-1.779032918</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E13)</f>
-        <v>11.406737870000001</v>
+        <v>5.1888690649999996</v>
       </c>
       <c r="K13" s="22">
         <v>9895681</v>
@@ -17331,28 +17327,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.46758920999999998</v>
+        <v>-2.0024196409999999</v>
       </c>
       <c r="B14">
-        <v>13.87169428</v>
+        <v>4.4753702090000003</v>
       </c>
       <c r="C14">
-        <v>11.40373325</v>
+        <v>4.6933724989999996</v>
       </c>
       <c r="E14" s="2">
         <v>7</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E14)</f>
-        <v>2.4648830080000002</v>
+        <v>-0.42624868900000001</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" ref="H14">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E14)</f>
-        <v>3.8392510770000001</v>
+        <v>-1.4092358410000001</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E14)</f>
-        <v>8.1397967990000009</v>
+        <v>2.467497888</v>
       </c>
       <c r="K14" s="23">
         <v>13827841</v>
@@ -17360,28 +17356,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.364148678</v>
+        <v>-1.8104858619999999</v>
       </c>
       <c r="B15">
-        <v>15.412717150000001</v>
+        <v>5.4588927199999997</v>
       </c>
       <c r="C15">
-        <v>8.3871872070000002</v>
+        <v>2.010276164</v>
       </c>
       <c r="E15" s="2">
         <v>6</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" ref="G15">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E15)</f>
-        <v>2.4644206519999998</v>
+        <v>-0.69136958699999995</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" ref="H15">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E15)</f>
-        <v>0.92761030300000002</v>
+        <v>-1.824588898</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E15)</f>
-        <v>8.1429983949999993</v>
+        <v>-0.32109958500000002</v>
       </c>
       <c r="K15" s="10">
         <v>16773121</v>
@@ -17389,28 +17385,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.21479092899999999</v>
+        <v>-1.53641669</v>
       </c>
       <c r="B16">
-        <v>17.637799529999999</v>
+        <v>5.7733790000000003</v>
       </c>
       <c r="C16">
-        <v>6.4538327180000001</v>
+        <v>-0.76357613199999996</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="G16" cm="1">
         <f t="array" ref="G16">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E16)</f>
-        <v>2.8820673929999998</v>
+        <v>0.29862867599999998</v>
       </c>
       <c r="H16" cm="1">
         <f t="array" ref="H16">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E16)</f>
-        <v>-0.88611566799999997</v>
+        <v>-2.7335114479999998</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E16)</f>
-        <v>5.2509914020000004</v>
+        <v>-0.98170844199999996</v>
       </c>
       <c r="K16" s="6">
         <v>16757761</v>
@@ -17418,28 +17414,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7.0237733999999996E-2</v>
+        <v>-0.33101379199999997</v>
       </c>
       <c r="B17">
-        <v>19.791305260000001</v>
+        <v>6.8807593159999998</v>
       </c>
       <c r="C17">
-        <v>5.1140123190000004</v>
+        <v>-1.3987769699999999</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E17)</f>
-        <v>3.5070497440000001</v>
+        <v>0.65655361400000001</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" ref="H17">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E17)</f>
-        <v>-0.75694962099999996</v>
+        <v>-2.840946175</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E17)</f>
-        <v>0.92328294799999999</v>
+        <v>1.8519499589999999</v>
       </c>
       <c r="K17" s="24">
         <v>16742657</v>
@@ -17447,28 +17443,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2.2975776E-2</v>
+        <v>-1.073439032</v>
       </c>
       <c r="B18">
-        <v>20.495398290000001</v>
+        <v>6.814159343</v>
       </c>
       <c r="C18">
-        <v>1.8116244100000001</v>
+        <v>1.198797052</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" ref="G18">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E18)</f>
-        <v>3.8222775069999999</v>
+        <v>0.60922746999999999</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" ref="H18">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E18)</f>
-        <v>-2.8866949649999998</v>
+        <v>-3.9862279699999998</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E18)</f>
-        <v>-1.259520864</v>
+        <v>3.4560039890000001</v>
       </c>
       <c r="K18" s="25">
         <v>16727297</v>
@@ -17476,28 +17472,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-5.1336753999999998E-2</v>
+        <v>-0.45159025899999999</v>
       </c>
       <c r="B19">
-        <v>21.6024818</v>
+        <v>8.5584117309999996</v>
       </c>
       <c r="C19">
-        <v>-1.2699474589999999</v>
+        <v>1.229366382</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" ref="G19">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E19)</f>
-        <v>4.1295485000000003</v>
+        <v>1.108209803</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" ref="H19">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E19)</f>
-        <v>-4.7295944309999998</v>
+        <v>-5.6983565909999996</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E19)</f>
-        <v>-3.387227781</v>
+        <v>1.206477891</v>
       </c>
       <c r="K19" s="26">
         <v>16711937</v>
@@ -17505,28 +17501,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-0.17432634</v>
+        <v>-7.3187433999999996E-2</v>
       </c>
       <c r="B20">
-        <v>23.434740009999999</v>
+        <v>10.18693395</v>
       </c>
       <c r="C20">
-        <v>-3.9701439509999998</v>
+        <v>-1.0662534960000001</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" ref="G20">INDEX(_xlfn._TRO_TRAILING(A$2:A$1048576),$E20)</f>
-        <v>4.4774719379999999</v>
+        <v>1.4613604549999999</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" ref="H20">INDEX(_xlfn._TRO_TRAILING(B$2:B$1048576),$E20)</f>
-        <v>-6.5940718540000001</v>
+        <v>-6.4461439470000004</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">INDEX(_xlfn._TRO_TRAILING(C$2:C$1048576),$E20)</f>
-        <v>-5.796433736</v>
+        <v>-1.567256258</v>
       </c>
       <c r="K20" s="27">
         <v>16711997</v>
@@ -17576,13 +17572,13 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" cm="1">
         <f t="array" ref="A2:C40">_xlfn.VSTACK(Base!$G$2:$I$21,Arch!G2:I20)</f>
-        <v>3.8636537830000002</v>
+        <v>0.18717768800000001</v>
       </c>
       <c r="B2">
-        <v>24.226315110000002</v>
+        <v>10.82894993</v>
       </c>
       <c r="C2">
-        <v>-6.8486022609999999</v>
+        <v>-3.791447878</v>
       </c>
       <c r="E2" s="3">
         <v>66047</v>
@@ -17590,13 +17586,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6.0539869409999998</v>
+        <v>1.8394835359999999</v>
       </c>
       <c r="B3">
-        <v>22.476450320000001</v>
+        <v>9.4892205660000002</v>
       </c>
       <c r="C3">
-        <v>-7.7919518229999998</v>
+        <v>-3.626884054</v>
       </c>
       <c r="E3" s="29">
         <v>73727</v>
@@ -17604,13 +17600,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7.620097103</v>
+        <v>2.4437609349999998</v>
       </c>
       <c r="B4">
-        <v>18.816597999999999</v>
+        <v>7.5544400310000004</v>
       </c>
       <c r="C4">
-        <v>-6.5733610520000001</v>
+        <v>-3.4073065539999998</v>
       </c>
       <c r="E4" s="4">
         <v>82943</v>
@@ -17618,13 +17614,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8.0685527409999995</v>
+        <v>2.9027499680000002</v>
       </c>
       <c r="B5">
-        <v>14.529342959999999</v>
+        <v>5.5991107859999998</v>
       </c>
       <c r="C5">
-        <v>-4.7852823969999996</v>
+        <v>-3.009617655</v>
       </c>
       <c r="E5" s="30">
         <v>90623</v>
@@ -17632,13 +17628,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8.2757777850000007</v>
+        <v>3.738838533</v>
       </c>
       <c r="B6">
-        <v>9.9295639330000007</v>
+        <v>3.3860353989999998</v>
       </c>
       <c r="C6">
-        <v>-3.9575694189999999</v>
+        <v>-2.7966077839999999</v>
       </c>
       <c r="E6" s="5">
         <v>98303</v>
@@ -17646,13 +17642,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.7840632280000008</v>
+        <v>4.4089207339999996</v>
       </c>
       <c r="B7">
-        <v>5.9250353569999996</v>
+        <v>1.41688905</v>
       </c>
       <c r="C7">
-        <v>-5.306363492</v>
+        <v>-2.7831053670000001</v>
       </c>
       <c r="E7" s="31">
         <v>105727</v>
@@ -17660,13 +17656,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8.2045821429999997</v>
+        <v>4.5794457299999998</v>
       </c>
       <c r="B8">
-        <v>1.9264668039999999</v>
+        <v>-3.7587567000000002E-2</v>
       </c>
       <c r="C8">
-        <v>-5.9134639279999996</v>
+        <v>-2.5425806500000001</v>
       </c>
       <c r="E8" s="32">
         <v>114943</v>
@@ -17674,13 +17670,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.8306503579999998</v>
+        <v>5.0635578639999999</v>
       </c>
       <c r="B9">
-        <v>-1.50583176</v>
+        <v>-1.997676037</v>
       </c>
       <c r="C9">
-        <v>-7.5616992319999996</v>
+        <v>-3.231658962</v>
       </c>
       <c r="E9" s="33">
         <v>122623</v>
@@ -17688,13 +17684,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7.0797169499999999</v>
+        <v>5.0091343190000002</v>
       </c>
       <c r="B10">
-        <v>-4.4410843440000001</v>
+        <v>-3.6524676340000002</v>
       </c>
       <c r="C10">
-        <v>-9.7125109389999995</v>
+        <v>-4.0420881120000001</v>
       </c>
       <c r="E10" s="34">
         <v>130303</v>
@@ -17702,13 +17698,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5.1396841999999996</v>
+        <v>4.0017496939999999</v>
       </c>
       <c r="B11">
-        <v>-7.5487294199999999</v>
+        <v>-5.1947919899999997</v>
       </c>
       <c r="C11">
-        <v>-10.3819418</v>
+        <v>-4.3025065480000002</v>
       </c>
       <c r="E11" s="35">
         <v>131044</v>
@@ -17716,13 +17712,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.41702152999999997</v>
+        <v>2.8000621799999998</v>
       </c>
       <c r="B12">
-        <v>-6.7377649120000003</v>
+        <v>-6.8118200299999998</v>
       </c>
       <c r="C12">
-        <v>-11.03655644</v>
+        <v>-3.9152920249999998</v>
       </c>
       <c r="E12" s="36">
         <v>131008</v>
@@ -17730,13 +17726,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-2.7294332670000001</v>
+        <v>0.85025380900000003</v>
       </c>
       <c r="B13">
-        <v>-4.2868112859999998</v>
+        <v>-7.9280246449999998</v>
       </c>
       <c r="C13">
-        <v>-9.3246464230000008</v>
+        <v>-4.4927720170000001</v>
       </c>
       <c r="E13" s="37">
         <v>130978</v>
@@ -17744,13 +17740,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-4.1754398699999999</v>
+        <v>-1.0356693640000001</v>
       </c>
       <c r="B14">
-        <v>-1.4144077079999999</v>
+        <v>-7.0112000920000002</v>
       </c>
       <c r="C14">
-        <v>-6.4815966940000003</v>
+        <v>-4.5698659939999997</v>
       </c>
       <c r="E14" s="38">
         <v>130948</v>
@@ -17758,13 +17754,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-5.2455440070000003</v>
+        <v>-2.1174695319999999</v>
       </c>
       <c r="B15">
-        <v>1.895431707</v>
+        <v>-4.7114933509999997</v>
       </c>
       <c r="C15">
-        <v>-4.3934269949999996</v>
+        <v>-4.4892756880000002</v>
       </c>
       <c r="E15" s="19">
         <v>130919</v>
@@ -17772,13 +17768,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-6.0220417099999999</v>
+        <v>-3.0395794920000001</v>
       </c>
       <c r="B16">
-        <v>5.9088799820000002</v>
+        <v>-2.2929993469999999</v>
       </c>
       <c r="C16">
-        <v>-3.1944498370000001</v>
+        <v>-3.7852382809999998</v>
       </c>
       <c r="E16" s="39">
         <v>130883</v>
@@ -17786,13 +17782,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-6.788168046</v>
+        <v>-4.0539841169999997</v>
       </c>
       <c r="B17">
-        <v>10.225141369999999</v>
+        <v>0.25944779800000001</v>
       </c>
       <c r="C17">
-        <v>-3.0643321100000001</v>
+        <v>-3.1746169950000001</v>
       </c>
       <c r="E17" s="40">
         <v>130853</v>
@@ -17800,13 +17796,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-6.937802016</v>
+        <v>-5.3474307630000002</v>
       </c>
       <c r="B18">
-        <v>15.04671703</v>
+        <v>2.8756223649999999</v>
       </c>
       <c r="C18">
-        <v>-4.8764375339999999</v>
+        <v>-3.1709711519999999</v>
       </c>
       <c r="E18" s="41">
         <v>130823</v>
@@ -17814,13 +17810,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-6.1027992649999998</v>
+        <v>-4.4100935210000003</v>
       </c>
       <c r="B19">
-        <v>19.229701200000001</v>
+        <v>5.4215291079999997</v>
       </c>
       <c r="C19">
-        <v>-7.6639096410000001</v>
+        <v>-3.2568835049999998</v>
       </c>
       <c r="E19" s="42">
         <v>1703681</v>
@@ -17828,13 +17824,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-4.1956552660000002</v>
+        <v>-3.0685697429999998</v>
       </c>
       <c r="B20">
-        <v>22.86775227</v>
+        <v>7.3898938169999999</v>
       </c>
       <c r="C20">
-        <v>-6.9571365299999997</v>
+        <v>-3.7210298879999999</v>
       </c>
       <c r="E20" s="43">
         <v>4062977</v>
@@ -17842,13 +17838,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-0.28192365200000002</v>
+        <v>-2.0263945190000001</v>
       </c>
       <c r="B21">
-        <v>25.03768921</v>
+        <v>9.7457173439999991</v>
       </c>
       <c r="C21">
-        <v>-6.6655530929999998</v>
+        <v>-3.912085254</v>
       </c>
       <c r="E21" s="9">
         <v>6029057</v>
@@ -17856,13 +17852,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-0.17432634</v>
+        <v>-7.3187433999999996E-2</v>
       </c>
       <c r="B22">
-        <v>23.434740009999999</v>
+        <v>10.18693395</v>
       </c>
       <c r="C22">
-        <v>-3.9701439509999998</v>
+        <v>-1.0662534960000001</v>
       </c>
       <c r="E22" s="44">
         <v>7995137</v>
@@ -17870,13 +17866,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-5.1336753999999998E-2</v>
+        <v>-0.45159025899999999</v>
       </c>
       <c r="B23">
-        <v>21.6024818</v>
+        <v>8.5584117309999996</v>
       </c>
       <c r="C23">
-        <v>-1.2699474589999999</v>
+        <v>1.229366382</v>
       </c>
       <c r="E23" s="45">
         <v>10288897</v>
@@ -17884,13 +17880,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.2975776E-2</v>
+        <v>-1.073439032</v>
       </c>
       <c r="B24">
-        <v>20.495398290000001</v>
+        <v>6.814159343</v>
       </c>
       <c r="C24">
-        <v>1.8116244100000001</v>
+        <v>1.198797052</v>
       </c>
       <c r="E24" s="46">
         <v>12254977</v>
@@ -17898,13 +17894,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7.0237733999999996E-2</v>
+        <v>-0.33101379199999997</v>
       </c>
       <c r="B25">
-        <v>19.791305260000001</v>
+        <v>6.8807593159999998</v>
       </c>
       <c r="C25">
-        <v>5.1140123190000004</v>
+        <v>-1.3987769699999999</v>
       </c>
       <c r="E25" s="47">
         <v>14221057</v>
@@ -17912,13 +17908,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.21479092899999999</v>
+        <v>-1.53641669</v>
       </c>
       <c r="B26">
-        <v>17.637799529999999</v>
+        <v>5.7733790000000003</v>
       </c>
       <c r="C26">
-        <v>6.4538327180000001</v>
+        <v>-0.76357613199999996</v>
       </c>
       <c r="E26" s="48">
         <v>16187137</v>
@@ -17926,13 +17922,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.364148678</v>
+        <v>-1.8104858619999999</v>
       </c>
       <c r="B27">
-        <v>15.412717150000001</v>
+        <v>5.4588927199999997</v>
       </c>
       <c r="C27">
-        <v>8.3871872070000002</v>
+        <v>2.010276164</v>
       </c>
       <c r="E27" s="49">
         <v>16770049</v>
@@ -17940,13 +17936,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.46758920999999998</v>
+        <v>-2.0024196409999999</v>
       </c>
       <c r="B28">
-        <v>13.87169428</v>
+        <v>4.4753702090000003</v>
       </c>
       <c r="C28">
-        <v>11.40373325</v>
+        <v>4.6933724989999996</v>
       </c>
       <c r="E28" s="25">
         <v>16762369</v>
@@ -17954,13 +17950,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.57844602700000003</v>
+        <v>-1.8044874070000001</v>
       </c>
       <c r="B29">
-        <v>12.220186050000001</v>
+        <v>2.8949788550000002</v>
       </c>
       <c r="C29">
-        <v>14.36771515</v>
+        <v>7.0682910789999998</v>
       </c>
       <c r="E29" s="50">
         <v>16754689</v>
@@ -17968,13 +17964,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.68744717200000005</v>
+        <v>-1.285270234</v>
       </c>
       <c r="B30">
-        <v>10.59632302</v>
+        <v>1.0433318739999999</v>
       </c>
       <c r="C30">
-        <v>17.352416309999999</v>
+        <v>9.1705122899999996</v>
       </c>
       <c r="E30" s="51">
         <v>16747009</v>
@@ -17982,13 +17978,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.87385952499999997</v>
+        <v>-0.20472905</v>
       </c>
       <c r="B31">
-        <v>7.8192133899999998</v>
+        <v>-1.161757588</v>
       </c>
       <c r="C31">
-        <v>19.156885150000001</v>
+        <v>10.520468709999999</v>
       </c>
       <c r="E31" s="7">
         <v>16738049</v>
@@ -17996,13 +17992,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1.4025702120000001</v>
+        <v>0.41124728500000002</v>
       </c>
       <c r="B32">
-        <v>5.185349414</v>
+        <v>-2.0025914889999998</v>
       </c>
       <c r="C32">
-        <v>15.49581263</v>
+        <v>8.0708819030000001</v>
       </c>
       <c r="E32" s="52">
         <v>16730369</v>
@@ -18010,13 +18006,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1.99309048</v>
+        <v>0.25065236499999999</v>
       </c>
       <c r="B33">
-        <v>3.5541586839999999</v>
+        <v>-1.779032918</v>
       </c>
       <c r="C33">
-        <v>11.406737870000001</v>
+        <v>5.1888690649999996</v>
       </c>
       <c r="E33" s="8">
         <v>16722689</v>
@@ -18024,13 +18020,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2.4648830080000002</v>
+        <v>-0.42624868900000001</v>
       </c>
       <c r="B34">
-        <v>3.8392510770000001</v>
+        <v>-1.4092358410000001</v>
       </c>
       <c r="C34">
-        <v>8.1397967990000009</v>
+        <v>2.467497888</v>
       </c>
       <c r="E34" s="53">
         <v>16715009</v>
@@ -18038,13 +18034,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2.4644206519999998</v>
+        <v>-0.69136958699999995</v>
       </c>
       <c r="B35">
-        <v>0.92761030300000002</v>
+        <v>-1.824588898</v>
       </c>
       <c r="C35">
-        <v>8.1429983949999993</v>
+        <v>-0.32109958500000002</v>
       </c>
       <c r="E35" s="54">
         <v>16711961</v>
@@ -18052,13 +18048,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2.8820673929999998</v>
+        <v>0.29862867599999998</v>
       </c>
       <c r="B36">
-        <v>-0.88611566799999997</v>
+        <v>-2.7335114479999998</v>
       </c>
       <c r="C36">
-        <v>5.2509914020000004</v>
+        <v>-0.98170844199999996</v>
       </c>
       <c r="E36" s="55">
         <v>16711991</v>
@@ -18066,13 +18062,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3.5070497440000001</v>
+        <v>0.65655361400000001</v>
       </c>
       <c r="B37">
-        <v>-0.75694962099999996</v>
+        <v>-2.840946175</v>
       </c>
       <c r="C37">
-        <v>0.92328294799999999</v>
+        <v>1.8519499589999999</v>
       </c>
       <c r="E37" s="56">
         <v>16712021</v>
@@ -18080,13 +18076,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3.8222775069999999</v>
+        <v>0.60922746999999999</v>
       </c>
       <c r="B38">
-        <v>-2.8866949649999998</v>
+        <v>-3.9862279699999998</v>
       </c>
       <c r="C38">
-        <v>-1.259520864</v>
+        <v>3.4560039890000001</v>
       </c>
       <c r="E38" s="57">
         <v>16712051</v>
@@ -18094,13 +18090,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4.1295485000000003</v>
+        <v>1.108209803</v>
       </c>
       <c r="B39">
-        <v>-4.7295944309999998</v>
+        <v>-5.6983565909999996</v>
       </c>
       <c r="C39">
-        <v>-3.387227781</v>
+        <v>1.206477891</v>
       </c>
       <c r="E39" s="58">
         <v>16712086</v>
@@ -18108,13 +18104,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4.4774719379999999</v>
+        <v>1.4613604549999999</v>
       </c>
       <c r="B40">
-        <v>-6.5940718540000001</v>
+        <v>-6.4461439470000004</v>
       </c>
       <c r="C40">
-        <v>-5.796433736</v>
+        <v>-1.567256258</v>
       </c>
       <c r="E40" s="11">
         <v>16712116</v>
